--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224890.79315669</v>
+        <v>1186854.176975414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779184</v>
+        <v>421727.3537779183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481814</v>
+        <v>7956703.636481812</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8803930.843398103</v>
+        <v>8803930.843398105</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>99.07907767104376</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>151.0551826969122</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.27042608456077</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -788,7 +788,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -800,7 +800,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>99.15242676576017</v>
+        <v>10.38017012637138</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>99.07907767104388</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
         <v>274.2838073416025</v>
@@ -946,7 +946,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>160.2040698085663</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14.44019161768586</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>26.6472631690857</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>168.1553481697935</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>151.0570449507885</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>113.2409600848666</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7.910541670262427</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>180.2906550380083</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
@@ -1390,7 +1390,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>49.7823671951049</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>10.77708785252926</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -1511,7 +1511,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>104.9616719336051</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1627,7 +1627,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>59.77489696059051</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T15" t="n">
         <v>195.6974464808964</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>353.1257564075747</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>217.4284629722708</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>51.58461646890688</v>
       </c>
       <c r="G18" t="n">
         <v>135.3570519053243</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -1991,7 +1991,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.41480556394149</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>208.792649458039</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -2089,10 +2089,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>15.24527514698245</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I21" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>141.7156789961992</v>
       </c>
       <c r="W22" t="n">
-        <v>111.1589672212689</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>66.23734587349318</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
@@ -2329,16 +2329,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.0386208165702</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>75.67504324679705</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>126.1165465901326</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>83.51342957218341</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>26.93636265451491</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>141.506200678453</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.33166980843018</v>
+        <v>128.2342301244892</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>159.2256139076173</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>95.15771913645182</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -2800,16 +2800,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>244.626539571303</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>161.538519602187</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6133508632724</v>
+        <v>79.35700500862784</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2936,7 +2936,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.35173941550786</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>106.5084742733586</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
@@ -3046,7 +3046,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>97.92794495792813</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>106.2663482954997</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>138.8691338914843</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.42797305210066</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>127.448701772486</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>111.9646500007255</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>42.88949971797852</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>249.4273734210296</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>123.1348560535068</v>
+        <v>31.95646482258569</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3520,10 +3520,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.59640537899611</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>8.701822518807621</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>119.8145353050051</v>
       </c>
       <c r="D41" t="n">
-        <v>19.70002819846735</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3757,7 +3757,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U42" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.887911957762622</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>183.7774565243294</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -3994,10 +3994,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>67.81447413907652</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>340.9315320764738</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>64.42390779605812</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4076,7 +4076,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>143.6597934514067</v>
       </c>
       <c r="H46" t="n">
-        <v>16.64049925911437</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.9462130081922</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D2" t="n">
-        <v>853.7716936371971</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E2" t="n">
-        <v>576.7173427870935</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F2" t="n">
-        <v>299.6629919369898</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4339,43 +4339,43 @@
         <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725949</v>
+        <v>801.270577449451</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725949</v>
+        <v>576.0532873520567</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725949</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="X2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8515700725949</v>
+        <v>44.98099349534252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G3" t="n">
-        <v>202.5224718095832</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4409,22 +4409,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>416.6555789338821</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020686</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N3" t="n">
-        <v>959.7375174702552</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>801.0973387912991</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U3" t="n">
-        <v>574.1708973092776</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>339.9196538348785</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="X3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.9196538348785</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.8515700725949</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="C5" t="n">
-        <v>953.8515700725949</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="D5" t="n">
-        <v>676.7972192224913</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="E5" t="n">
-        <v>576.7173427870935</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="F5" t="n">
         <v>299.6629919369898</v>
       </c>
       <c r="G5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4582,37 +4582,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725949</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725949</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8515700725949</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8515700725949</v>
+        <v>307.0305308062229</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.8373438740776</v>
+        <v>308.9895637408215</v>
       </c>
       <c r="C6" t="n">
-        <v>503.251291735001</v>
+        <v>136.2364486626387</v>
       </c>
       <c r="D6" t="n">
-        <v>503.251291735001</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
         <v>109.3200212191178</v>
@@ -4646,52 +4646,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>29.88839882769005</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>277.9660032696081</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>549.5069725377946</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377946</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O6" t="n">
-        <v>817.3865915151152</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="X6" t="n">
-        <v>890.6083307719877</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.8798949956381</v>
+        <v>308.9895637408215</v>
       </c>
     </row>
     <row r="7">
@@ -4716,22 +4716,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.6342799752006</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="C8" t="n">
-        <v>728.6342799752006</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D8" t="n">
-        <v>728.6342799752006</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
-        <v>728.6342799752006</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>451.579929125097</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6342799752006</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6342799752006</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6342799752006</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6342799752006</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6342799752006</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="Y8" t="n">
-        <v>728.6342799752006</v>
+        <v>214.8348805355379</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>168.5779744919641</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>440.1189437601506</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4910,25 +4910,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838489</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169108</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348894</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="V9" t="n">
-        <v>395.5121543033111</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="W9" t="n">
-        <v>395.5121543033111</v>
+        <v>548.5828471246322</v>
       </c>
       <c r="X9" t="n">
-        <v>188.9852557088886</v>
+        <v>342.0559485302097</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.9852557088886</v>
+        <v>136.3275127538601</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2485.286380156665</v>
+        <v>1157.385703723912</v>
       </c>
       <c r="C11" t="n">
-        <v>2114.594364319349</v>
+        <v>1157.385703723912</v>
       </c>
       <c r="D11" t="n">
-        <v>1754.387563557128</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5071,22 +5071,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U11" t="n">
-        <v>2485.286380156665</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V11" t="n">
-        <v>2485.286380156665</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W11" t="n">
-        <v>2485.286380156665</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="X11" t="n">
-        <v>2485.286380156665</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="Y11" t="n">
-        <v>2485.286380156665</v>
+        <v>1339.497476489577</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
         <v>501.6810712336537</v>
@@ -5123,19 +5123,19 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P12" t="n">
         <v>2370.209254145837</v>
@@ -5159,13 +5159,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5232,19 +5232,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1367.399648652797</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.399648652797</v>
+        <v>1701.596651617685</v>
       </c>
       <c r="D14" t="n">
-        <v>1367.399648652797</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F14" t="n">
-        <v>955.9917057431599</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535823</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5311,19 +5311,19 @@
         <v>2072.288667455001</v>
       </c>
       <c r="U14" t="n">
-        <v>1818.371334220299</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V14" t="n">
-        <v>1757.992650421722</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W14" t="n">
-        <v>1757.992650421722</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X14" t="n">
-        <v>1757.992650421722</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1367.399648652797</v>
+        <v>2072.288667455001</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C15" t="n">
         <v>806.8789068718552</v>
@@ -5360,49 +5360,49 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2471.287047559323</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5518,16 +5518,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5542,25 +5542,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T17" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>2471.287047559323</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V17" t="n">
-        <v>2471.287047559323</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W17" t="n">
-        <v>2471.287047559323</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="X17" t="n">
-        <v>2471.287047559323</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="Y17" t="n">
-        <v>2471.287047559323</v>
+        <v>1266.894885235662</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F18" t="n">
         <v>356.7252812502705</v>
@@ -5603,10 +5603,10 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5694,28 +5694,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>281.6639118382623</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="T19" t="n">
-        <v>53.43541385018935</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="U19" t="n">
-        <v>53.43541385018935</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V19" t="n">
-        <v>53.43541385018935</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W19" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X19" t="n">
-        <v>53.43541385018935</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y19" t="n">
         <v>50.71143199091319</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.6102485904496</v>
+        <v>1580.006106404418</v>
       </c>
       <c r="C20" t="n">
-        <v>410.9182327531338</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D20" t="n">
-        <v>50.71143199091319</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E20" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
         <v>50.71143199091319</v>
@@ -5752,13 +5752,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2520.172331720425</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.172331720425</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.172331720425</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>2266.254998485722</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V20" t="n">
-        <v>1934.403259574086</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W20" t="n">
-        <v>1934.403259574086</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X20" t="n">
-        <v>1559.795583684016</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="Y20" t="n">
-        <v>1169.202581915091</v>
+        <v>1790.907772523649</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>73.27740472504951</v>
       </c>
       <c r="H21" t="n">
-        <v>73.27740472504951</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.0582880536082</v>
+        <v>536.3949456579222</v>
       </c>
       <c r="C22" t="n">
-        <v>189.0582880536082</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="D22" t="n">
-        <v>189.0582880536082</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="E22" t="n">
-        <v>189.0582880536082</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F22" t="n">
-        <v>189.0582880536082</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G22" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5934,28 +5934,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>529.7646791178286</v>
+        <v>536.3949456579222</v>
       </c>
       <c r="W22" t="n">
-        <v>417.4828940458398</v>
+        <v>536.3949456579222</v>
       </c>
       <c r="X22" t="n">
-        <v>189.0582880536082</v>
+        <v>536.3949456579222</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.0582880536082</v>
+        <v>536.3949456579222</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2181.500774292574</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C23" t="n">
-        <v>2114.594364319349</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D23" t="n">
-        <v>1754.387563557128</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.399648652797</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -5995,7 +5995,7 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6022,19 +6022,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U23" t="n">
-        <v>2535.571599545659</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.571599545659</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="W23" t="n">
-        <v>2181.500774292574</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="X23" t="n">
-        <v>2181.500774292574</v>
+        <v>1946.783498588347</v>
       </c>
       <c r="Y23" t="n">
-        <v>2181.500774292574</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1508696139405</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
         <v>50.71143199091319</v>
@@ -6068,52 +6068,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S24" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497.6393774816751</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>328.6125563390465</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>178.1018830920572</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
         <v>50.71143199091319</v>
@@ -6183,16 +6183,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>955.9917057431599</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C26" t="n">
-        <v>955.9917057431599</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D26" t="n">
-        <v>955.9917057431599</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E26" t="n">
-        <v>955.9917057431599</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
@@ -6238,7 +6238,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6259,19 +6259,19 @@
         <v>2072.288667455001</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="W26" t="n">
-        <v>1343.584039067801</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="X26" t="n">
-        <v>1343.584039067801</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y26" t="n">
-        <v>1343.584039067801</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C27" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1786.275517555499</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S27" t="n">
-        <v>2470.252003537142</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.5778151726</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.92990744237</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X27" t="n">
-        <v>1352.403008847948</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.674573071598</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.3108739090779</v>
+        <v>518.7081427170958</v>
       </c>
       <c r="C28" t="n">
-        <v>464.3108739090779</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="D28" t="n">
-        <v>464.3108739090779</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E28" t="n">
-        <v>315.8516575725131</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F28" t="n">
-        <v>219.7327493538749</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6405,31 +6405,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y28" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2160.963923655589</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="C29" t="n">
-        <v>1790.271907818274</v>
+        <v>658.0157474716217</v>
       </c>
       <c r="D29" t="n">
-        <v>1430.065107056053</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="E29" t="n">
-        <v>1043.077192151722</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F29" t="n">
-        <v>631.6692492420848</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G29" t="n">
-        <v>213.8816538113041</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
         <v>50.71143199091319</v>
@@ -6463,19 +6463,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L29" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N29" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O29" t="n">
         <v>2113.071138623965</v>
@@ -6502,13 +6502,13 @@
         <v>2535.571599545659</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.571599545659</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X29" t="n">
-        <v>2160.963923655589</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y29" t="n">
-        <v>2160.963923655589</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6575,13 +6575,13 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V30" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W30" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X30" t="n">
         <v>1352.403008847948</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201.2221052379024</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="C31" t="n">
-        <v>201.2221052379024</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>125.8141990772848</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>125.8141990772848</v>
       </c>
       <c r="G31" t="n">
         <v>50.71143199091319</v>
@@ -6648,25 +6648,25 @@
         <v>529.7646791178286</v>
       </c>
       <c r="S31" t="n">
-        <v>422.1803616699916</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T31" t="n">
-        <v>422.1803616699916</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U31" t="n">
-        <v>422.1803616699916</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="V31" t="n">
-        <v>422.1803616699916</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="W31" t="n">
-        <v>422.1803616699916</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="X31" t="n">
-        <v>422.1803616699916</v>
+        <v>274.2734154138496</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.2221052379024</v>
+        <v>274.2734154138496</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1339.030887212671</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C32" t="n">
-        <v>1339.030887212671</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D32" t="n">
-        <v>978.8240864504505</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E32" t="n">
-        <v>978.8240864504505</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4161435408132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G32" t="n">
-        <v>149.6285481100325</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H32" t="n">
         <v>50.71143199091319</v>
@@ -6700,19 +6700,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724806</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M32" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2471.287047559323</v>
+        <v>2363.947301806293</v>
       </c>
       <c r="T32" t="n">
-        <v>2471.287047559323</v>
+        <v>2363.947301806293</v>
       </c>
       <c r="U32" t="n">
-        <v>2471.287047559323</v>
+        <v>2363.947301806293</v>
       </c>
       <c r="V32" t="n">
-        <v>2471.287047559323</v>
+        <v>2032.095562894657</v>
       </c>
       <c r="W32" t="n">
-        <v>2117.216222306238</v>
+        <v>2032.095562894657</v>
       </c>
       <c r="X32" t="n">
-        <v>2117.216222306238</v>
+        <v>1657.487887004587</v>
       </c>
       <c r="Y32" t="n">
-        <v>1726.623220537313</v>
+        <v>1266.894885235662</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P33" t="n">
         <v>2370.209254145837</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2434226008642</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G34" t="n">
         <v>50.71143199091319</v>
@@ -6882,28 +6882,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591335</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591335</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="U34" t="n">
-        <v>390.6311794045659</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>937.1274251290104</v>
+        <v>1580.006106404418</v>
       </c>
       <c r="C35" t="n">
-        <v>566.4354092916946</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D35" t="n">
-        <v>566.4354092916946</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E35" t="n">
-        <v>179.4474943873637</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F35" t="n">
-        <v>179.4474943873637</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G35" t="n">
-        <v>179.4474943873637</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
-        <v>179.4474943873637</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6967,22 +6967,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2251.574998418504</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U35" t="n">
-        <v>1997.657665183802</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V35" t="n">
-        <v>1665.805926272166</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W35" t="n">
-        <v>1311.735101019081</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X35" t="n">
-        <v>937.1274251290104</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="Y35" t="n">
-        <v>937.1274251290104</v>
+        <v>1967.598439729059</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
         <v>1620.913172155677</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.03415897877028</v>
+        <v>199.170648327478</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E37" t="n">
         <v>50.71143199091319</v>
@@ -7119,28 +7119,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>314.9924154108594</v>
+        <v>427.5952543197096</v>
       </c>
       <c r="V37" t="n">
-        <v>314.9924154108594</v>
+        <v>427.5952543197096</v>
       </c>
       <c r="W37" t="n">
-        <v>314.9924154108594</v>
+        <v>427.5952543197096</v>
       </c>
       <c r="X37" t="n">
-        <v>314.9924154108594</v>
+        <v>199.170648327478</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.03415897877028</v>
+        <v>199.170648327478</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1761.965543551268</v>
+        <v>1770.370921886664</v>
       </c>
       <c r="C38" t="n">
-        <v>1391.273527713952</v>
+        <v>1399.678906049348</v>
       </c>
       <c r="D38" t="n">
-        <v>1266.894885235662</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="E38" t="n">
-        <v>879.9069703313312</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F38" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G38" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7180,13 +7180,13 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7201,25 +7201,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U38" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V38" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W38" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X38" t="n">
-        <v>1761.965543551268</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y38" t="n">
-        <v>1761.965543551268</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7265,13 +7265,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
@@ -7280,25 +7280,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>282.2922808080989</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>124.0411343939396</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>2385.794182504354</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>2171.021918797385</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>2162.232199081418</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U40" t="n">
-        <v>2162.232199081418</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2144.978597776734</v>
+        <v>1159.744556249168</v>
       </c>
       <c r="C41" t="n">
-        <v>1774.286581939418</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="D41" t="n">
-        <v>1754.387563557128</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E41" t="n">
-        <v>1367.399648652797</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F41" t="n">
-        <v>955.9917057431599</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G41" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H41" t="n">
         <v>209.5242347723812</v>
@@ -7414,16 +7414,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L41" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U41" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="W41" t="n">
-        <v>2535.571599545659</v>
+        <v>1937.929891342735</v>
       </c>
       <c r="X41" t="n">
-        <v>2535.571599545659</v>
+        <v>1937.929891342735</v>
       </c>
       <c r="Y41" t="n">
-        <v>2144.978597776734</v>
+        <v>1547.336889573809</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7523,19 +7523,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>54.63861578663301</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>54.63861578663301</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>54.63861578663301</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>54.63861578663301</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>54.63861578663301</v>
       </c>
       <c r="G43" t="n">
         <v>50.71143199091319</v>
@@ -7599,22 +7599,22 @@
         <v>464.7698324521643</v>
       </c>
       <c r="T43" t="n">
-        <v>464.7698324521643</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="U43" t="n">
-        <v>279.1360379831448</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="V43" t="n">
-        <v>279.1360379831448</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="W43" t="n">
-        <v>279.1360379831448</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1367.399648652797</v>
+        <v>1706.086369900328</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.399648652797</v>
+        <v>1335.394354063012</v>
       </c>
       <c r="D44" t="n">
-        <v>1367.399648652797</v>
+        <v>1335.394354063012</v>
       </c>
       <c r="E44" t="n">
-        <v>1367.399648652797</v>
+        <v>948.4064391586812</v>
       </c>
       <c r="F44" t="n">
-        <v>955.9917057431599</v>
+        <v>536.9984962490439</v>
       </c>
       <c r="G44" t="n">
-        <v>538.2041103123792</v>
+        <v>119.2109008182632</v>
       </c>
       <c r="H44" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W44" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X44" t="n">
-        <v>1757.992650421722</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y44" t="n">
-        <v>1367.399648652797</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C45" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D45" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E45" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F45" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G45" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H45" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="C46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="D46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="E46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="F46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="G46" t="n">
-        <v>67.52001710112972</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5413344640914</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U46" t="n">
-        <v>236.5413344640914</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="W46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="X46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.5413344640914</v>
+        <v>195.8223344670816</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740115</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8066,16 +8066,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8297,25 +8297,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>134.9533660241181</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155704</v>
+        <v>351.0738258308815</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8537,13 +8537,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155704</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N9" t="n">
-        <v>320.5492771539185</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8552,7 +8552,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8771,7 +8771,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8786,7 +8786,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9008,7 +9008,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9251,13 +9251,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N18" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9968,13 +9968,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P27" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10445,7 +10445,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>215.5642480505376</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q33" t="n">
         <v>218.4803792452831</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>382.8790379822985</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.5063687605953</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789566</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11299,7 +11299,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740113</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>203.4257549533868</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>201.5957927072509</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23497,13 +23497,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>251.6430608209932</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>268.7583245619288</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>175.7123868802086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23734,10 +23734,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>13.8593392713679</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>133.1016540282837</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>91.92161561464241</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>129.1111114977161</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.0519318270848</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>174.923760533356</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>48.39643131949049</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
@@ -24025,16 +24025,16 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I21" t="n">
-        <v>41.22751706926216</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24138,16 +24138,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
         <v>49.35397375491781</v>
@@ -24174,7 +24174,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
@@ -24186,13 +24186,13 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>111.22067207074</v>
       </c>
       <c r="W22" t="n">
-        <v>174.9336096661467</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>300.7477498054494</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>39.33953908578562</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>28.35378553858531</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>20.85807758306659</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24423,13 +24423,13 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>142.6269303601258</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24451,19 +24451,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>224.4417972478409</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>209.0239163221016</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>145.2563458546447</v>
+        <v>28.35378553858567</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>20.85807758306652</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.00130227335268</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
         <v>148.2796428708918</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>138.4914961839845</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>163.8545571824109</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -24742,13 +24742,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3311041893321</v>
+        <v>92.97936477382422</v>
       </c>
       <c r="H31" t="n">
         <v>156.6686349500177</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>106.1160667965408</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
         <v>225.9462130081922</v>
@@ -24897,7 +24897,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>227.4651318266698</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
         <v>157.2246747536534</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>71.22711935836831</v>
       </c>
       <c r="T32" t="n">
         <v>217.5149286494106</v>
@@ -24976,13 +24976,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.6686349500177</v>
@@ -25122,7 +25122,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
-        <v>148.2796428708918</v>
+        <v>9.410508979407524</v>
       </c>
       <c r="S34" t="n">
         <v>212.6245410698995</v>
@@ -25131,13 +25131,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>202.5083780148385</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
@@ -25174,7 +25174,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>29.77597298116734</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>258.8969491304439</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>124.4470532132238</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25359,16 +25359,16 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>36.59443416599228</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25377,10 +25377,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>233.4698767010916</v>
+        <v>324.6482679320127</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>64.36698212307195</v>
       </c>
       <c r="J40" t="n">
         <v>49.35397375491781</v>
@@ -25596,19 +25596,19 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2443904893845</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>247.1705603739375</v>
       </c>
       <c r="D41" t="n">
-        <v>336.904704556131</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.5149286494106</v>
@@ -25690,7 +25690,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>163.4431922315695</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.2443510626925</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25851,7 +25851,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25867,13 +25867,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>257.5786026455214</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25930,7 +25930,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>29.93006705469554</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>81.68851577858744</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>23.67131073792538</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0281356909034</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
         <v>136.9633875020681</v>
@@ -26073,7 +26073,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>685880.4694738855</v>
+        <v>685880.4694738856</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>685880.4694738854</v>
+        <v>685880.4694738855</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>685880.4694738854</v>
+        <v>685880.4694738856</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>685880.4694738855</v>
+        <v>685880.4694738856</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685880.4694738857</v>
+        <v>685880.4694738856</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685880.4694738856</v>
+        <v>685880.4694738855</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685880.4694738856</v>
+        <v>685880.4694738855</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488351.6451689618</v>
+        <v>488351.6451689617</v>
       </c>
       <c r="C2" t="n">
         <v>488351.6451689617</v>
       </c>
       <c r="D2" t="n">
-        <v>488351.6451689617</v>
+        <v>488351.6451689618</v>
       </c>
       <c r="E2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="F2" t="n">
-        <v>329217.5724393254</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="G2" t="n">
-        <v>329217.5724393257</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="H2" t="n">
+        <v>329217.572439326</v>
+      </c>
+      <c r="I2" t="n">
+        <v>329217.572439326</v>
+      </c>
+      <c r="J2" t="n">
         <v>329217.5724393259</v>
       </c>
-      <c r="I2" t="n">
-        <v>329217.5724393258</v>
-      </c>
-      <c r="J2" t="n">
-        <v>329217.5724393254</v>
-      </c>
       <c r="K2" t="n">
-        <v>329217.5724393258</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="L2" t="n">
-        <v>329217.572439326</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="M2" t="n">
         <v>329217.5724393259</v>
       </c>
       <c r="N2" t="n">
-        <v>329217.5724393258</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="O2" t="n">
         <v>329217.572439326</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853739</v>
+        <v>89616.02429853741</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>319437.8415733089</v>
       </c>
       <c r="D4" t="n">
-        <v>319437.8415733089</v>
+        <v>319437.841573309</v>
       </c>
       <c r="E4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.3115051504</v>
       </c>
       <c r="F4" t="n">
         <v>55362.31150515038</v>
@@ -26435,31 +26435,31 @@
         <v>55362.31150515039</v>
       </c>
       <c r="H4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.3115051504</v>
       </c>
       <c r="I4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="J4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="K4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="L4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.3115051504</v>
       </c>
       <c r="M4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="N4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.3115051504</v>
       </c>
       <c r="O4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="P4" t="n">
-        <v>55362.31150515039</v>
+        <v>55362.3115051504</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26690.93574154365</v>
+        <v>26690.93574154352</v>
       </c>
       <c r="C6" t="n">
         <v>118609.7481092834</v>
@@ -26530,40 +26530,40 @@
         <v>118609.7481092834</v>
       </c>
       <c r="E6" t="n">
-        <v>-127626.4300681795</v>
+        <v>-134257.0164319144</v>
       </c>
       <c r="F6" t="n">
-        <v>228562.9998185002</v>
+        <v>221932.4134547658</v>
       </c>
       <c r="G6" t="n">
-        <v>228562.9998185005</v>
+        <v>221932.4134547658</v>
       </c>
       <c r="H6" t="n">
-        <v>228562.9998185007</v>
+        <v>221932.4134547659</v>
       </c>
       <c r="I6" t="n">
-        <v>228562.9998185006</v>
+        <v>221932.4134547659</v>
       </c>
       <c r="J6" t="n">
-        <v>156798.287330414</v>
+        <v>150167.7009666796</v>
       </c>
       <c r="K6" t="n">
-        <v>228562.9998185006</v>
+        <v>221932.4134547658</v>
       </c>
       <c r="L6" t="n">
-        <v>228562.9998185008</v>
+        <v>221932.4134547659</v>
       </c>
       <c r="M6" t="n">
-        <v>138946.9755199633</v>
+        <v>132316.3891562284</v>
       </c>
       <c r="N6" t="n">
-        <v>228562.9998185006</v>
+        <v>221932.4134547658</v>
       </c>
       <c r="O6" t="n">
-        <v>228562.9998185008</v>
+        <v>221932.413454766</v>
       </c>
       <c r="P6" t="n">
-        <v>228562.9998185007</v>
+        <v>221932.4134547659</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>257.5256550835546</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>54.80976902662707</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27472,10 +27472,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>18.19208943757201</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>190.6573243660415</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -27557,13 +27557,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>74.23872090402213</v>
+        <v>163.0109775434109</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27621,13 +27621,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32092541299585</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>284.0389580842436</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>140.5709580622284</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -27675,10 +27675,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>190.3260471919883</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>156.5853923097151</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>119.4651604055599</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -27754,13 +27754,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,19 +27788,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>77.81530721627865</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>198.8297475091492</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27864,19 +27864,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7977204530424</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27921,7 +27921,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>52.13116552547821</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>223.9981893693927</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402213</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051554</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34786,16 +34786,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557963024118129</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
+        <v>212.4931427569136</v>
+      </c>
+      <c r="N6" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N9" t="n">
-        <v>192.4911078726685</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35272,7 +35272,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299612</v>
@@ -35506,7 +35506,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q12" t="n">
         <v>167.0326721210326</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M18" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N18" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36211,7 +36211,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,7 +36448,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
@@ -36457,7 +36457,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36688,13 +36688,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O27" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P27" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -36931,7 +36931,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37165,7 +37165,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>212.146218598423</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q33" t="n">
         <v>167.0326721210326</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37396,7 +37396,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>428.0775398193789</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>524.7048705976756</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37800,7 +37800,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37870,7 +37870,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873248</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L44" t="n">
         <v>400.9729937182839</v>
